--- a/data/134/DEUSTATIS/National accounts - general government years.xlsx
+++ b/data/134/DEUSTATIS/National accounts - general government years.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="50">
   <si>
     <t>National accounts - Revenue, expenditure, net lending/net
 borrowing of general government: Germany, years</t>
@@ -120,6 +120,9 @@
     <t>2020</t>
   </si>
   <si>
+    <t>2021</t>
+  </si>
+  <si>
     <t>Revenue of general government</t>
   </si>
   <si>
@@ -159,7 +162,7 @@
     <t>______________</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-12-28 / 09:39:22</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-03-31 / 11:39:21</t>
   </si>
 </sst>
 </file>
@@ -603,7 +606,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" wrapText="true"/>
@@ -783,6 +786,14 @@
       <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="24" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="24" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
@@ -920,6 +931,10 @@
       <protection hidden="false" locked="true"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="30" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="24" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -1078,6 +1093,7 @@
     <col min="30" max="30" width="9.03125" customWidth="true"/>
     <col min="31" max="31" width="9.03125" customWidth="true"/>
     <col min="32" max="32" width="9.03125" customWidth="true"/>
+    <col min="33" max="33" width="9.03125" customWidth="true"/>
     <col min="7" max="7" width="9.03125" customWidth="true"/>
     <col min="12" max="12" width="9.03125" customWidth="true"/>
     <col min="13" max="13" width="9.03125" customWidth="true"/>
@@ -1104,109 +1120,112 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="85">
+      <c r="A4" t="s" s="87">
         <v>3</v>
       </c>
-      <c r="B4" t="s" s="86">
+      <c r="B4" t="s" s="88">
         <v>4</v>
       </c>
-      <c r="C4" t="s" s="87">
+      <c r="C4" t="s" s="89">
         <v>5</v>
       </c>
-      <c r="D4" t="s" s="88">
+      <c r="D4" t="s" s="90">
         <v>6</v>
       </c>
-      <c r="E4" t="s" s="89">
+      <c r="E4" t="s" s="91">
         <v>7</v>
       </c>
-      <c r="F4" t="s" s="90">
+      <c r="F4" t="s" s="92">
         <v>8</v>
       </c>
-      <c r="G4" t="s" s="91">
+      <c r="G4" t="s" s="93">
         <v>9</v>
       </c>
-      <c r="H4" t="s" s="92">
+      <c r="H4" t="s" s="94">
         <v>10</v>
       </c>
-      <c r="I4" t="s" s="93">
+      <c r="I4" t="s" s="95">
         <v>11</v>
       </c>
-      <c r="J4" t="s" s="94">
+      <c r="J4" t="s" s="96">
         <v>12</v>
       </c>
-      <c r="K4" t="s" s="95">
+      <c r="K4" t="s" s="97">
         <v>13</v>
       </c>
-      <c r="L4" t="s" s="96">
+      <c r="L4" t="s" s="98">
         <v>14</v>
       </c>
-      <c r="M4" t="s" s="97">
+      <c r="M4" t="s" s="99">
         <v>15</v>
       </c>
-      <c r="N4" t="s" s="98">
+      <c r="N4" t="s" s="100">
         <v>16</v>
       </c>
-      <c r="O4" t="s" s="99">
+      <c r="O4" t="s" s="101">
         <v>17</v>
       </c>
-      <c r="P4" t="s" s="100">
+      <c r="P4" t="s" s="102">
         <v>18</v>
       </c>
-      <c r="Q4" t="s" s="101">
+      <c r="Q4" t="s" s="103">
         <v>19</v>
       </c>
-      <c r="R4" t="s" s="102">
+      <c r="R4" t="s" s="104">
         <v>20</v>
       </c>
-      <c r="S4" t="s" s="103">
+      <c r="S4" t="s" s="105">
         <v>21</v>
       </c>
-      <c r="T4" t="s" s="104">
+      <c r="T4" t="s" s="106">
         <v>22</v>
       </c>
-      <c r="U4" t="s" s="105">
+      <c r="U4" t="s" s="107">
         <v>23</v>
       </c>
-      <c r="V4" t="s" s="106">
+      <c r="V4" t="s" s="108">
         <v>24</v>
       </c>
-      <c r="W4" t="s" s="107">
+      <c r="W4" t="s" s="109">
         <v>25</v>
       </c>
-      <c r="X4" t="s" s="108">
+      <c r="X4" t="s" s="110">
         <v>26</v>
       </c>
-      <c r="Y4" t="s" s="109">
+      <c r="Y4" t="s" s="111">
         <v>27</v>
       </c>
-      <c r="Z4" t="s" s="110">
+      <c r="Z4" t="s" s="112">
         <v>28</v>
       </c>
-      <c r="AA4" t="s" s="111">
+      <c r="AA4" t="s" s="113">
         <v>29</v>
       </c>
-      <c r="AB4" t="s" s="112">
+      <c r="AB4" t="s" s="114">
         <v>30</v>
       </c>
-      <c r="AC4" t="s" s="113">
+      <c r="AC4" t="s" s="115">
         <v>31</v>
       </c>
-      <c r="AD4" t="s" s="114">
+      <c r="AD4" t="s" s="116">
         <v>32</v>
       </c>
-      <c r="AE4" t="s" s="115">
+      <c r="AE4" t="s" s="117">
         <v>33</v>
       </c>
-      <c r="AF4" t="s" s="116">
+      <c r="AF4" t="s" s="118">
         <v>34</v>
+      </c>
+      <c r="AG4" t="s" s="119">
+        <v>35</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="9">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s" s="13">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C5" t="n" s="10">
         <v>686.311</v>
@@ -1297,14 +1316,17 @@
       </c>
       <c r="AF5" t="n" s="10">
         <v>1566.885</v>
+      </c>
+      <c r="AG5" t="n" s="10">
+        <v>1705.765</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="9">
+        <v>38</v>
+      </c>
+      <c r="B6" t="s" s="13">
         <v>37</v>
-      </c>
-      <c r="B6" t="s" s="13">
-        <v>36</v>
       </c>
       <c r="C6" t="n" s="10">
         <v>608.422</v>
@@ -1395,14 +1417,17 @@
       </c>
       <c r="AF6" t="n" s="10">
         <v>1381.364</v>
+      </c>
+      <c r="AG6" t="n" s="10">
+        <v>1505.666</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="9">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s" s="13">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C7" t="n" s="10">
         <v>350.191</v>
@@ -1493,14 +1518,17 @@
       </c>
       <c r="AF7" t="n" s="10">
         <v>773.416</v>
+      </c>
+      <c r="AG7" t="n" s="10">
+        <v>872.868</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="9">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s" s="13">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C8" t="n" s="10">
         <v>258.231</v>
@@ -1591,14 +1619,17 @@
       </c>
       <c r="AF8" t="n" s="10">
         <v>607.948</v>
+      </c>
+      <c r="AG8" t="n" s="10">
+        <v>632.798</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="9">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s" s="13">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C9" t="n" s="10">
         <v>736.883</v>
@@ -1689,14 +1720,17 @@
       </c>
       <c r="AF9" t="n" s="10">
         <v>1712.131</v>
+      </c>
+      <c r="AG9" t="n" s="10">
+        <v>1838.219</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="9">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s" s="13">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C10" t="n" s="10">
         <v>65.324</v>
@@ -1787,14 +1821,17 @@
       </c>
       <c r="AF10" t="n" s="10">
         <v>209.82</v>
+      </c>
+      <c r="AG10" t="n" s="10">
+        <v>232.498</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="9">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s" s="13">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C11" t="n" s="10">
         <v>137.521</v>
@@ -1885,14 +1922,17 @@
       </c>
       <c r="AF11" t="n" s="10">
         <v>284.09</v>
+      </c>
+      <c r="AG11" t="n" s="10">
+        <v>294.118</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="9">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s" s="13">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C12" t="n" s="10">
         <v>235.65</v>
@@ -1983,14 +2023,17 @@
       </c>
       <c r="AF12" t="n" s="10">
         <v>595.075</v>
+      </c>
+      <c r="AG12" t="n" s="10">
+        <v>609.014</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="9">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s" s="13">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C13" t="n" s="10">
         <v>100.617</v>
@@ -2081,14 +2124,17 @@
       </c>
       <c r="AF13" t="n" s="10">
         <v>310.102</v>
+      </c>
+      <c r="AG13" t="n" s="10">
+        <v>327.498</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="9">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B14" t="s" s="13">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C14" t="n" s="10">
         <v>49.196</v>
@@ -2179,14 +2225,17 @@
       </c>
       <c r="AF14" t="n" s="10">
         <v>90.94</v>
+      </c>
+      <c r="AG14" t="n" s="10">
+        <v>91.748</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="9">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s" s="13">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C15" t="n" s="10">
         <v>-50.572</v>
@@ -2277,27 +2326,30 @@
       </c>
       <c r="AF15" t="n" s="10">
         <v>-145.246</v>
+      </c>
+      <c r="AG15" t="n" s="10">
+        <v>-132.454</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="12">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="A2:AF2"/>
-    <mergeCell ref="A3:AF3"/>
-    <mergeCell ref="A1:AF1"/>
+    <mergeCell ref="A2:AG2"/>
+    <mergeCell ref="A3:AG3"/>
+    <mergeCell ref="A1:AG1"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 28.12.21 / 09:39:26&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 31.03.22 / 11:39:25&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>